--- a/config.xlsx
+++ b/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\WebRegBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\UCSD_WebReg_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3845B96-D7A4-4CAA-A111-ECDD1B2DC202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EEA84C-CB93-4CF8-82CD-17A56AD9C9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-2775" windowWidth="19394" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,15 +39,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MMW11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Put Your Password Here</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Put Your Username Here</t>
+    <t>CSE15L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quarter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fall Quarter 2022</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,50 +373,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>86968</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>86969</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>86931</v>
-      </c>
-      <c r="C4">
-        <v>86932</v>
+      <c r="B5">
+        <v>90014</v>
+      </c>
+      <c r="C5">
+        <v>90015</v>
+      </c>
+      <c r="D5">
+        <v>90016</v>
       </c>
     </row>
   </sheetData>
